--- a/语音工具/语音项目计划表.xlsx
+++ b/语音工具/语音项目计划表.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13350" windowHeight="8430"/>
+    <workbookView windowWidth="27765" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="窗口项" sheetId="1" r:id="rId1"/>
@@ -368,12 +368,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,32 +401,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,8 +428,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,7 +453,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +520,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -483,30 +528,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,14 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -535,16 +549,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,187 +559,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor theme="1" tint="0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,33 +789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -819,6 +804,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -830,6 +824,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,10 +879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,137 +891,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +1039,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1485,11 +1500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:M51"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2632,7 +2647,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" customHeight="1" spans="1:10">
+    <row r="45" customHeight="1" spans="1:15">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2653,6 +2668,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" customHeight="1" spans="1:10">
       <c r="A46" s="4">
@@ -2788,7 +2804,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2805,7 +2821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
